--- a/Locations File for Naloxbox.xlsx
+++ b/Locations File for Naloxbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1887Building\Epidemiology\Personal Folders\DQ\Projects\NaloxBoxMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{18D97FC0-90AE-472E-A610-3DAE9B405171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D1262-5F7A-4463-ABB3-FB2B3451927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27ED504E-A5D4-479D-8B6E-6A10EAE004FA}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{27ED504E-A5D4-479D-8B6E-6A10EAE004FA}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="205">
   <si>
     <t>address</t>
   </si>
@@ -622,6 +622,36 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>location_type</t>
+  </si>
+  <si>
+    <t>Naloxbox</t>
+  </si>
+  <si>
+    <t>73 James P Kelly Way, Middletown, NY 10940</t>
+  </si>
+  <si>
+    <t>Main Office</t>
+  </si>
+  <si>
+    <t>100 Leprechaun Ln, New Windsor, NY 12553</t>
+  </si>
+  <si>
+    <t>Hudson House</t>
+  </si>
+  <si>
+    <t>123 Pike St, Port Jervis, NY 12771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson House </t>
+  </si>
+  <si>
+    <t>Suite 208</t>
+  </si>
+  <si>
+    <t>10 Little Britain Rd, Newburgh, NY 12550</t>
   </si>
 </sst>
 </file>
@@ -1169,18 +1199,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{551FFCAB-1C9F-40B1-AABC-090069A6BD01}" name="Table1" displayName="Table1" ref="A1:F71" totalsRowShown="0">
-  <autoFilter ref="A1:F71" xr:uid="{551FFCAB-1C9F-40B1-AABC-090069A6BD01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{551FFCAB-1C9F-40B1-AABC-090069A6BD01}" name="Table1" displayName="Table1" ref="A1:G75" totalsRowShown="0">
+  <autoFilter ref="A1:G75" xr:uid="{551FFCAB-1C9F-40B1-AABC-090069A6BD01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F71">
     <sortCondition ref="B1:B71"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6E32AB7E-C64D-4B45-A6B1-6200CA3C9509}" name="address"/>
     <tableColumn id="2" xr3:uid="{1B7C6ECB-6B09-49BD-B15C-3D5FF144CFF0}" name="name"/>
     <tableColumn id="3" xr3:uid="{A34F7304-9D46-45E5-9B91-59A072D1718C}" name="narcanlocation"/>
     <tableColumn id="4" xr3:uid="{07B14B93-904A-4FCA-BBE4-8FE6EA57EDAB}" name="hours"/>
     <tableColumn id="5" xr3:uid="{3A5C877D-9F49-4BA7-8C57-420E516905E3}" name="longitude"/>
     <tableColumn id="6" xr3:uid="{940F9632-6D3C-431C-99DF-6B739A8382E5}" name="latitude"/>
+    <tableColumn id="7" xr3:uid="{67DA7390-13DF-4780-9A8B-C45B691E40F1}" name="location_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1503,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC5317-ECFC-4489-8BFE-C76EDA4CFA9B}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,9 +1548,10 @@
     <col min="4" max="4" width="172.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1538,8 +1570,11 @@
       <c r="F1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1558,8 +1593,11 @@
       <c r="F2">
         <v>41.510334010499598</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1575,8 +1613,11 @@
       <c r="F3">
         <v>41.351056200000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1592,8 +1633,11 @@
       <c r="F4">
         <v>41.351056200000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1609,8 +1653,11 @@
       <c r="F5">
         <v>41.351056200000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1629,8 +1676,11 @@
       <c r="F6">
         <v>41.617800000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1649,8 +1699,11 @@
       <c r="F7">
         <v>41.509474523031798</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -1669,8 +1722,11 @@
       <c r="F8">
         <v>41.441831800000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1686,8 +1742,11 @@
       <c r="F9">
         <v>41.512202676399198</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1706,8 +1765,11 @@
       <c r="F10">
         <v>41.512202676399198</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1723,8 +1785,11 @@
       <c r="F11">
         <v>41.479957579999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1743,8 +1808,11 @@
       <c r="F12">
         <v>41.513877098521398</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1760,8 +1828,11 @@
       <c r="F13">
         <v>41.500399999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1774,8 +1845,11 @@
       <c r="F14">
         <v>41.500849700000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1791,8 +1865,11 @@
       <c r="F15">
         <v>41.471314300000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1811,8 +1888,11 @@
       <c r="F16">
         <v>41.499351400000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1831,8 +1911,11 @@
       <c r="F17">
         <v>41.512995661180298</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1851,8 +1934,11 @@
       <c r="F18">
         <v>41.448229699999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -1871,8 +1957,11 @@
       <c r="F19">
         <v>41.446137899999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1888,8 +1977,11 @@
       <c r="F20">
         <v>41.501089999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="F21">
         <v>41.503731500000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1925,8 +2020,11 @@
       <c r="F22">
         <v>41.494212699999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1945,8 +2043,11 @@
       <c r="F23">
         <v>41.500508600000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -1965,8 +2066,11 @@
       <c r="F24">
         <v>41.375935400000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -1985,8 +2089,11 @@
       <c r="F25">
         <v>41.376792199999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2005,8 +2112,11 @@
       <c r="F26">
         <v>41.35754</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2025,8 +2135,11 @@
       <c r="F27">
         <v>41.3983299</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2045,8 +2158,11 @@
       <c r="F28">
         <v>41.454395300000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2065,8 +2181,11 @@
       <c r="F29">
         <v>41.398074399999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>31</v>
       </c>
@@ -2082,8 +2201,11 @@
       <c r="F30">
         <v>41.454395300000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2102,8 +2224,11 @@
       <c r="F31">
         <v>41.499831899999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2119,8 +2244,11 @@
       <c r="F32">
         <v>41.499831899999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2136,8 +2264,11 @@
       <c r="F33">
         <v>41.501025599999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -2156,8 +2287,11 @@
       <c r="F34">
         <v>41.500170300000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -2173,8 +2307,11 @@
       <c r="F35">
         <v>41.373857800000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>171</v>
       </c>
@@ -2190,8 +2327,11 @@
       <c r="F36">
         <v>41.327290599999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>177</v>
       </c>
@@ -2207,8 +2347,11 @@
       <c r="F37">
         <v>41.308892800000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -2224,8 +2367,11 @@
       <c r="F38">
         <v>41.375935400000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -2244,8 +2390,11 @@
       <c r="F39">
         <v>41.376282099999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2264,8 +2413,11 @@
       <c r="F40">
         <v>41.375066799999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -2284,8 +2436,11 @@
       <c r="F41">
         <v>41.370820100000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -2304,8 +2459,11 @@
       <c r="F42">
         <v>41.454395300000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -2318,8 +2476,11 @@
       <c r="F43">
         <v>41.502581200000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -2335,8 +2496,11 @@
       <c r="F44">
         <v>41.452846299999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -2355,8 +2519,11 @@
       <c r="F45">
         <v>41.448543299999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -2375,8 +2542,11 @@
       <c r="F46">
         <v>41.501447900000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -2395,8 +2565,11 @@
       <c r="F47">
         <v>41.375604099999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2415,8 +2588,11 @@
       <c r="F48">
         <v>41.499851300000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2435,8 +2611,11 @@
       <c r="F49">
         <v>41.5137666529304</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2452,8 +2631,11 @@
       <c r="F50">
         <v>41.500999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -2469,8 +2651,11 @@
       <c r="F51">
         <v>41.437486</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -2486,8 +2671,11 @@
       <c r="F52">
         <v>41.437798635737899</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -2506,8 +2694,11 @@
       <c r="F53">
         <v>41.436715100000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -2523,8 +2714,11 @@
       <c r="F54">
         <v>41.438099030169603</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2540,8 +2734,11 @@
       <c r="F55">
         <v>41.4387605266759</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -2557,8 +2754,11 @@
       <c r="F56">
         <v>41.439243473403401</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>144</v>
       </c>
@@ -2574,8 +2774,11 @@
       <c r="F57">
         <v>41.439675100000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -2591,8 +2794,11 @@
       <c r="F58">
         <v>41.438973799999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -2608,8 +2814,11 @@
       <c r="F59">
         <v>41.5015235115997</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -2625,8 +2834,11 @@
       <c r="F60">
         <v>41.500156559133103</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -2642,8 +2854,11 @@
       <c r="F61">
         <v>41.502386000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2662,8 +2877,11 @@
       <c r="F62">
         <v>41.4512</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2679,8 +2897,11 @@
       <c r="F63">
         <v>41.500729999999997</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2699,8 +2920,11 @@
       <c r="F64">
         <v>41.463085800000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2719,8 +2943,11 @@
       <c r="F65">
         <v>41.508664000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -2739,8 +2966,11 @@
       <c r="F66">
         <v>41.484917699999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2756,8 +2986,11 @@
       <c r="F67">
         <v>41.467277529999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2776,8 +3009,11 @@
       <c r="F68">
         <v>41.467277529999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -2793,8 +3029,11 @@
       <c r="F69">
         <v>41.617800000000003</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -2813,8 +3052,11 @@
       <c r="F70">
         <v>41.378958699999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -2832,6 +3074,77 @@
       </c>
       <c r="F71">
         <v>41.604087300000003</v>
+      </c>
+      <c r="G71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72">
+        <v>-74.433728900000006</v>
+      </c>
+      <c r="F72">
+        <v>41.424500500000001</v>
+      </c>
+      <c r="G72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73">
+        <v>-74.035192699999996</v>
+      </c>
+      <c r="F73">
+        <v>41.4921261</v>
+      </c>
+      <c r="G73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74">
+        <v>-74.691874299999995</v>
+      </c>
+      <c r="F74">
+        <v>41.375512000000001</v>
+      </c>
+      <c r="G74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75">
+        <v>-74.032155099999997</v>
+      </c>
+      <c r="F75">
+        <v>41.500152</v>
+      </c>
+      <c r="G75" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
